--- a/attendance_sheet.xlsx
+++ b/attendance_sheet.xlsx
@@ -433,25 +433,25 @@
         <v>2026-01-31</v>
       </c>
       <c r="B2" t="str">
-        <v>001</v>
+        <v>ADMIN001</v>
       </c>
       <c r="C2" t="str">
-        <v>ABHILASH</v>
+        <v>Super Admin</v>
       </c>
       <c r="D2" t="str">
-        <v>7:33:16 PM</v>
+        <v>2:39:29 AM</v>
       </c>
       <c r="E2" t="str">
-        <v>QAFQ</v>
+        <v>Test remark</v>
       </c>
       <c r="F2" t="str">
-        <v>7:33:17 PM</v>
+        <v>2:40:15 AM</v>
       </c>
       <c r="G2" t="str">
-        <v>7:33:19 PM</v>
+        <v>2:40:38 AM</v>
       </c>
       <c r="H2" t="str">
-        <v>7:33:20 PM</v>
+        <v/>
       </c>
     </row>
   </sheetData>
